--- a/output/2_2_0/nomogram_config_2_2_0.xlsx
+++ b/output/2_2_0/nomogram_config_2_2_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>feature</t>
   </si>
@@ -55,9 +55,6 @@
     <t>AvgCyclomatic</t>
   </si>
   <si>
-    <t>AvgCyclomaticModified</t>
-  </si>
-  <si>
     <t>AvgEssential</t>
   </si>
   <si>
@@ -79,12 +76,6 @@
     <t>CountDeclMethodDefault</t>
   </si>
   <si>
-    <t>CountDeclMethodPrivate</t>
-  </si>
-  <si>
-    <t>CountDeclMethodProtected</t>
-  </si>
-  <si>
     <t>MaxCyclomatic</t>
   </si>
   <si>
@@ -115,7 +106,10 @@
     <t>CountOutputMax</t>
   </si>
   <si>
-    <t>CountPathMean-divided-by-1,000</t>
+    <t>CountPathMin-divided-by-1,000</t>
+  </si>
+  <si>
+    <t>CountPathMean-divided-by-1,000,000</t>
   </si>
   <si>
     <t>CountPathMax-divided-by-1,000,000</t>
@@ -459,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.3892</v>
+        <v>-2.2632</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -506,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0007</v>
+        <v>0.0037</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -523,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.0425</v>
+        <v>-0.0418</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -540,13 +534,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1248</v>
+        <v>0.0876</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -557,13 +551,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.2262</v>
+        <v>-0.164</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -574,13 +568,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.1956</v>
+        <v>0.0537</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -591,13 +585,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.2121</v>
+        <v>-0.06370000000000001</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -608,13 +602,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.4085</v>
+        <v>0.0151</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -625,13 +619,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0123</v>
+        <v>0.0291</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -642,13 +636,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0315</v>
+        <v>-0.0022</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>2409</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -659,13 +653,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.08160000000000001</v>
+        <v>-0.0031</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>2409</v>
+        <v>902</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -676,13 +670,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0282</v>
+        <v>0.01</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>902</v>
+        <v>412</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -693,13 +687,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1012</v>
+        <v>0.0202</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>412</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -710,13 +704,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0327</v>
+        <v>-0.0249</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>602</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -727,13 +721,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.0564</v>
+        <v>0.0021</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>302</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -744,13 +738,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.062</v>
+        <v>-0.5293</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>145</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -761,13 +755,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.6245000000000001</v>
+        <v>-0.0635</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -778,13 +772,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0009</v>
+        <v>0.0402</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>55.5</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -795,13 +789,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.6918</v>
+        <v>0.0009</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.699999999999999</v>
+        <v>398</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -812,13 +806,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.2296</v>
+        <v>-0.0298</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -829,13 +823,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.1309</v>
+        <v>0.0131</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>55.5</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -846,13 +840,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0032</v>
+        <v>0.0146</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>398</v>
+        <v>197</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -863,13 +857,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.1017</v>
+        <v>0.0005</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>73</v>
+        <v>1363</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -880,13 +874,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.07190000000000001</v>
+        <v>0.0569</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -897,13 +891,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0198</v>
+        <v>-0.0003</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>197</v>
+        <v>1000</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -914,13 +908,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0004</v>
+        <v>0.0648</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>12477</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -931,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0029</v>
+        <v>0.1622</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -948,49 +942,15 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.0091</v>
+        <v>0.0839</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>-0.0104</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>-0.0173</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
         <v>9</v>
       </c>
     </row>

--- a/output/2_2_0/nomogram_config_2_2_0.xlsx
+++ b/output/2_2_0/nomogram_config_2_2_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>feature</t>
   </si>
@@ -46,15 +46,9 @@
     <t>continuous</t>
   </si>
   <si>
-    <t>AvgCountLineBlank</t>
-  </si>
-  <si>
     <t>AvgCountLineComment</t>
   </si>
   <si>
-    <t>AvgCyclomatic</t>
-  </si>
-  <si>
     <t>AvgEssential</t>
   </si>
   <si>
@@ -70,12 +64,6 @@
     <t>CountDeclClass</t>
   </si>
   <si>
-    <t>CountDeclClassMethod</t>
-  </si>
-  <si>
-    <t>CountDeclMethodDefault</t>
-  </si>
-  <si>
     <t>MaxCyclomatic</t>
   </si>
   <si>
@@ -100,25 +88,19 @@
     <t>CountOutputMin</t>
   </si>
   <si>
-    <t>CountOutputMean</t>
-  </si>
-  <si>
     <t>CountOutputMax</t>
   </si>
   <si>
-    <t>CountPathMin-divided-by-1,000</t>
-  </si>
-  <si>
-    <t>CountPathMean-divided-by-1,000,000</t>
+    <t>CountPathMin-divided-by-10,000</t>
+  </si>
+  <si>
+    <t>CountPathMean-divided-by-100,000</t>
   </si>
   <si>
     <t>CountPathMax-divided-by-1,000,000</t>
   </si>
   <si>
     <t>MaxNestingMin</t>
-  </si>
-  <si>
-    <t>MaxNestingMean</t>
   </si>
   <si>
     <t>MaxNestingMax</t>
@@ -453,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-2.2632</v>
+        <v>-0.5879</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -500,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0037</v>
+        <v>-0.0059</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -517,13 +499,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.0418</v>
+        <v>0.0626</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -534,13 +516,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0876</v>
+        <v>-0.3459</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -551,13 +533,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.164</v>
+        <v>-0.5058</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -568,13 +550,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0537</v>
+        <v>0.0139</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -585,13 +567,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06370000000000001</v>
+        <v>-0.1264</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -602,13 +584,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0151</v>
+        <v>-0.0016</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>149</v>
+        <v>2409</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -619,13 +601,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0291</v>
+        <v>0.0037</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -636,13 +618,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0022</v>
+        <v>-0.8554</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>2409</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -653,13 +635,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0031</v>
+        <v>-0.0011</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>902</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -670,13 +652,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01</v>
+        <v>-0.4219</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>412</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -687,13 +669,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0202</v>
+        <v>-0.1364</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -704,13 +686,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0249</v>
+        <v>0.0405</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>55.5</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -721,13 +703,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.0021</v>
+        <v>0.0001</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>398</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -738,13 +720,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.5293</v>
+        <v>-0.0236</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.699999999999999</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -755,13 +737,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0635</v>
+        <v>0.021</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -772,13 +754,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0402</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>55.5</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -789,13 +771,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0009</v>
+        <v>0.0201</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -806,13 +788,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0298</v>
+        <v>-0.0009</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>73</v>
+        <v>1000</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -823,13 +805,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0131</v>
+        <v>-0.06610000000000001</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -840,117 +822,15 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0146</v>
+        <v>0.1256</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.0005</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1363</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.0569</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>200</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>-0.0003</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1000</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.0648</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.1622</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.0839</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
         <v>9</v>
       </c>
     </row>

--- a/output/2_2_0/nomogram_config_2_2_0.xlsx
+++ b/output/2_2_0/nomogram_config_2_2_0.xlsx
@@ -466,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.5879</v>
+        <v>-0.2769</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -482,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0059</v>
+        <v>-0.007</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.0626</v>
+        <v>0.0346</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.3459</v>
+        <v>-0.196</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.5058</v>
+        <v>-0.3249</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0139</v>
+        <v>0.0121</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.1264</v>
+        <v>-0.0603</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.0016</v>
+        <v>-0.011</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -601,7 +601,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0037</v>
+        <v>0.0124</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.8554</v>
+        <v>-0.4636</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0011</v>
+        <v>-0.0081</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.4219</v>
+        <v>-0.3378</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.1364</v>
+        <v>-0.1039</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0405</v>
+        <v>-0.0549</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.0236</v>
+        <v>-0.1122</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.021</v>
+        <v>0.0257</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0001</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0201</v>
+        <v>0.0131</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0009</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.06610000000000001</v>
+        <v>-0.0159</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1256</v>
+        <v>-0.0501</v>
       </c>
       <c r="C24">
         <v>0</v>
